--- a/Code/Results/Cases/Case_4_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_184/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.22628267807505</v>
+        <v>24.74403644308763</v>
       </c>
       <c r="C2">
-        <v>10.40148660058747</v>
+        <v>10.68104836919495</v>
       </c>
       <c r="D2">
-        <v>8.503876747239888</v>
+        <v>12.84230271379829</v>
       </c>
       <c r="E2">
-        <v>6.945336371229378</v>
+        <v>12.05414600804594</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.188251162878809</v>
+        <v>3.841133873346237</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.63407015444371</v>
+        <v>44.45218186239924</v>
       </c>
       <c r="J2">
-        <v>4.326644914406176</v>
+        <v>7.479373422515214</v>
       </c>
       <c r="K2">
-        <v>16.8699115827521</v>
+        <v>22.36385840546215</v>
       </c>
       <c r="L2">
-        <v>9.343509510421711</v>
+        <v>14.82135193464963</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.02601305505617</v>
+        <v>28.11438811150361</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.402337866591</v>
+        <v>24.6667897445041</v>
       </c>
       <c r="C3">
-        <v>9.859944143652672</v>
+        <v>10.57657537048508</v>
       </c>
       <c r="D3">
-        <v>8.316669677389031</v>
+        <v>12.84536146111778</v>
       </c>
       <c r="E3">
-        <v>6.928996335446601</v>
+        <v>12.07593591476398</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.198508607906627</v>
+        <v>3.844784390681683</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.22093916059098</v>
+        <v>44.43295455265356</v>
       </c>
       <c r="J3">
-        <v>4.331821858557798</v>
+        <v>7.482834944910886</v>
       </c>
       <c r="K3">
-        <v>16.21965312800092</v>
+        <v>22.31151922590653</v>
       </c>
       <c r="L3">
-        <v>9.213069480171598</v>
+        <v>14.83598901566326</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.06365678329102</v>
+        <v>28.13092495601708</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.89330377447635</v>
+        <v>24.62524050407935</v>
       </c>
       <c r="C4">
-        <v>9.521735880726631</v>
+        <v>10.51482489021473</v>
       </c>
       <c r="D4">
-        <v>8.205305195312429</v>
+        <v>12.84951445484534</v>
       </c>
       <c r="E4">
-        <v>6.921939682333831</v>
+        <v>12.09070721792382</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.204964016955981</v>
+        <v>3.847142694716771</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.98247086659962</v>
+        <v>44.42703674037769</v>
       </c>
       <c r="J4">
-        <v>4.335289237004726</v>
+        <v>7.485103127229858</v>
       </c>
       <c r="K4">
-        <v>15.82077401847884</v>
+        <v>22.28441142537943</v>
       </c>
       <c r="L4">
-        <v>9.13770985656531</v>
+        <v>14.84725983334297</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.09211753389966</v>
+        <v>28.14283343510605</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.68533868826436</v>
+        <v>24.60979919940553</v>
       </c>
       <c r="C5">
-        <v>9.38261734559323</v>
+        <v>10.49028851762277</v>
       </c>
       <c r="D5">
-        <v>8.160846119665244</v>
+        <v>12.85177919602448</v>
       </c>
       <c r="E5">
-        <v>6.919795806779641</v>
+        <v>12.09707709092429</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.207636334521856</v>
+        <v>3.848133219835138</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.88902258285807</v>
+        <v>44.42610684186638</v>
       </c>
       <c r="J5">
-        <v>4.336773640176621</v>
+        <v>7.486063426015513</v>
       </c>
       <c r="K5">
-        <v>15.65851178354928</v>
+        <v>22.27463617755893</v>
       </c>
       <c r="L5">
-        <v>9.108177368920593</v>
+        <v>14.85242699179487</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.10501208268149</v>
+        <v>28.14812742474333</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.6507824924585</v>
+        <v>24.60732550279425</v>
       </c>
       <c r="C6">
-        <v>9.359443178848689</v>
+        <v>10.48625286764705</v>
       </c>
       <c r="D6">
-        <v>8.153520110714267</v>
+        <v>12.85218982903806</v>
       </c>
       <c r="E6">
-        <v>6.919483534445589</v>
+        <v>12.09815598010455</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.208082648147971</v>
+        <v>3.848299480522443</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.87372812895249</v>
+        <v>44.42604194303419</v>
       </c>
       <c r="J6">
-        <v>4.337024405682451</v>
+        <v>7.486225059612002</v>
       </c>
       <c r="K6">
-        <v>15.63159136263877</v>
+        <v>22.27308997244253</v>
       </c>
       <c r="L6">
-        <v>9.103344236457351</v>
+        <v>14.8533196725619</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.10723017914288</v>
+        <v>28.14903313192843</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.89050086177826</v>
+        <v>24.62502620882679</v>
       </c>
       <c r="C7">
-        <v>9.519864722023133</v>
+        <v>10.51449141177335</v>
       </c>
       <c r="D7">
-        <v>8.20470183864202</v>
+        <v>12.84954268019433</v>
       </c>
       <c r="E7">
-        <v>6.921907828108689</v>
+        <v>12.0907917048347</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.20499988526492</v>
+        <v>3.847155933709488</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.9811956111344</v>
+        <v>44.42701819935366</v>
       </c>
       <c r="J7">
-        <v>4.335308968476574</v>
+        <v>7.485115932287687</v>
       </c>
       <c r="K7">
-        <v>15.81858427719427</v>
+        <v>22.28427443695291</v>
       </c>
       <c r="L7">
-        <v>9.137306821932853</v>
+        <v>14.84732719461792</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.09228624565497</v>
+        <v>28.14290304553629</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.94297829998661</v>
+        <v>24.71618875739388</v>
       </c>
       <c r="C8">
-        <v>10.21601792451012</v>
+        <v>10.64454403793175</v>
       </c>
       <c r="D8">
-        <v>8.43859764066311</v>
+        <v>12.84288546102447</v>
       </c>
       <c r="E8">
-        <v>6.939074504061332</v>
+        <v>12.06137043523955</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.191756614893075</v>
+        <v>3.842368380601601</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.48841336445054</v>
+        <v>44.44433108126255</v>
       </c>
       <c r="J8">
-        <v>4.328369248070786</v>
+        <v>7.480537372332309</v>
       </c>
       <c r="K8">
-        <v>16.64572859404084</v>
+        <v>22.34477265421191</v>
       </c>
       <c r="L8">
-        <v>9.297544492443119</v>
+        <v>14.82592485935354</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.03785277401339</v>
+        <v>28.11972577009174</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.97283415024337</v>
+        <v>24.94103178333231</v>
       </c>
       <c r="C9">
-        <v>11.53160451094402</v>
+        <v>10.91743718911387</v>
       </c>
       <c r="D9">
-        <v>8.924780490216094</v>
+        <v>12.84786016541182</v>
       </c>
       <c r="E9">
-        <v>6.997124074428187</v>
+        <v>12.0147059967463</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.16692977845235</v>
+        <v>3.833902368734528</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.60787932100082</v>
+        <v>44.52493463723537</v>
       </c>
       <c r="J9">
-        <v>4.317112432009388</v>
+        <v>7.472687838394056</v>
       </c>
       <c r="K9">
-        <v>18.26387668482666</v>
+        <v>22.5029544780815</v>
       </c>
       <c r="L9">
-        <v>9.649878457002277</v>
+        <v>14.80207233875954</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.97589036327879</v>
+        <v>28.08820285189454</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.43419107909013</v>
+        <v>25.13342161770335</v>
       </c>
       <c r="C10">
-        <v>12.46445875522965</v>
+        <v>11.12720293639298</v>
       </c>
       <c r="D10">
-        <v>9.297783871667043</v>
+        <v>12.8624679674272</v>
       </c>
       <c r="E10">
-        <v>7.055753801957479</v>
+        <v>11.98712462888712</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.149225557761719</v>
+        <v>3.828237751588463</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.51272685316171</v>
+        <v>44.6124862817914</v>
       </c>
       <c r="J10">
-        <v>4.310375060979906</v>
+        <v>7.46760359420013</v>
       </c>
       <c r="K10">
-        <v>19.44331117394474</v>
+        <v>22.64272823899595</v>
       </c>
       <c r="L10">
-        <v>9.932855022556057</v>
+        <v>14.79558612070811</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.96125059487631</v>
+        <v>28.07354098843669</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.0914483483683</v>
+        <v>25.22662837242319</v>
       </c>
       <c r="C11">
-        <v>12.88141823919983</v>
+        <v>11.22428473514539</v>
       </c>
       <c r="D11">
-        <v>9.470796697745886</v>
+        <v>12.87147908822844</v>
       </c>
       <c r="E11">
-        <v>7.08615620854559</v>
+        <v>11.97602789644083</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.14124750643917</v>
+        <v>3.825779881708576</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.94380063874547</v>
+        <v>44.65843329310331</v>
       </c>
       <c r="J11">
-        <v>4.307669816651334</v>
+        <v>7.465437757647796</v>
       </c>
       <c r="K11">
-        <v>19.9770010227841</v>
+        <v>22.71128885037693</v>
       </c>
       <c r="L11">
-        <v>10.06706438994428</v>
+        <v>14.7950284409154</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.9621910851426</v>
+        <v>28.06871754783284</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.33922529293252</v>
+        <v>25.26272016963065</v>
       </c>
       <c r="C12">
-        <v>13.03827631008158</v>
+        <v>11.26125481608721</v>
       </c>
       <c r="D12">
-        <v>9.536790576246744</v>
+        <v>12.87523007913676</v>
       </c>
       <c r="E12">
-        <v>7.098228559062535</v>
+        <v>11.97203397629409</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.138233525467565</v>
+        <v>3.82486614784374</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.10998041239456</v>
+        <v>44.67670801567706</v>
       </c>
       <c r="J12">
-        <v>4.306699826608695</v>
+        <v>7.464638663829557</v>
       </c>
       <c r="K12">
-        <v>20.17866470699511</v>
+        <v>22.73795285699373</v>
       </c>
       <c r="L12">
-        <v>10.11869879064492</v>
+        <v>14.79516077713735</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.96372407494426</v>
+        <v>28.06715656699436</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.28591154996203</v>
+        <v>25.254912090118</v>
       </c>
       <c r="C13">
-        <v>13.00453939043116</v>
+        <v>11.25328392453548</v>
       </c>
       <c r="D13">
-        <v>9.522556300011859</v>
+        <v>12.87440720060237</v>
       </c>
       <c r="E13">
-        <v>7.095603285997473</v>
+        <v>11.97288488586462</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.13888238726704</v>
+        <v>3.825062181973065</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.07405728408024</v>
+        <v>44.67273336115499</v>
       </c>
       <c r="J13">
-        <v>4.306906262775633</v>
+        <v>7.464809827507432</v>
       </c>
       <c r="K13">
-        <v>20.13525207688798</v>
+        <v>22.73217931792685</v>
       </c>
       <c r="L13">
-        <v>10.10754183121532</v>
+        <v>14.79511700886328</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.96334014404111</v>
+        <v>28.06748094105611</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.11185540584331</v>
+        <v>25.22958183248794</v>
       </c>
       <c r="C14">
-        <v>12.89434352701226</v>
+        <v>11.22732230994624</v>
       </c>
       <c r="D14">
-        <v>9.476216458307556</v>
+        <v>12.8717809066507</v>
       </c>
       <c r="E14">
-        <v>7.087138053804831</v>
+        <v>11.97569514427349</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.140999424453411</v>
+        <v>3.825704367994073</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.95741249802684</v>
+        <v>44.65991924463192</v>
       </c>
       <c r="J14">
-        <v>4.307588907093436</v>
+        <v>7.465371594061651</v>
       </c>
       <c r="K14">
-        <v>19.99360070247122</v>
+        <v>22.71346853768446</v>
       </c>
       <c r="L14">
-        <v>10.07129594728906</v>
+        <v>14.79503244751791</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.96229310640213</v>
+        <v>28.06858380273641</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.00509604234231</v>
+        <v>25.2141693761711</v>
       </c>
       <c r="C15">
-        <v>12.8267119011845</v>
+        <v>11.21144614286592</v>
       </c>
       <c r="D15">
-        <v>9.447894277000799</v>
+        <v>12.87021628133967</v>
       </c>
       <c r="E15">
-        <v>7.082026449251856</v>
+        <v>11.97744360783567</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.142296981287186</v>
+        <v>3.826099937387175</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.88635189229193</v>
+        <v>44.6521841155685</v>
       </c>
       <c r="J15">
-        <v>4.308014222383249</v>
+        <v>7.465718432807375</v>
       </c>
       <c r="K15">
-        <v>19.90677865471077</v>
+        <v>22.70209857664435</v>
       </c>
       <c r="L15">
-        <v>10.04920088043758</v>
+        <v>14.79502536773914</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.96180767036811</v>
+        <v>28.06929392116587</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.39108276063999</v>
+        <v>25.12744298424696</v>
       </c>
       <c r="C16">
-        <v>12.4370623280647</v>
+        <v>11.12088912225016</v>
       </c>
       <c r="D16">
-        <v>9.286543809755218</v>
+        <v>12.86192655176078</v>
       </c>
       <c r="E16">
-        <v>7.053843947887958</v>
+        <v>11.98787897701791</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.149748154222402</v>
+        <v>3.828400764797391</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.48495849122467</v>
+        <v>44.60960631374543</v>
       </c>
       <c r="J16">
-        <v>4.310559314006832</v>
+        <v>7.467748088219163</v>
       </c>
       <c r="K16">
-        <v>19.40837317579614</v>
+        <v>22.63834660995835</v>
       </c>
       <c r="L16">
-        <v>9.92419635533831</v>
+        <v>14.79567067154305</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.9613490428292</v>
+        <v>28.07389336932181</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.01244283223564</v>
+        <v>25.07568106722891</v>
       </c>
       <c r="C17">
-        <v>12.19614044884555</v>
+        <v>11.0657379445203</v>
       </c>
       <c r="D17">
-        <v>9.188410291787283</v>
+        <v>12.85744602392975</v>
       </c>
       <c r="E17">
-        <v>7.037526446806525</v>
+        <v>11.99465190864874</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.154336055046734</v>
+        <v>3.829842651429895</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.24379566869238</v>
+        <v>44.58505060473852</v>
       </c>
       <c r="J17">
-        <v>4.312214553989077</v>
+        <v>7.469030813021595</v>
       </c>
       <c r="K17">
-        <v>19.10186079138725</v>
+        <v>22.60050185916383</v>
       </c>
       <c r="L17">
-        <v>9.848929520667111</v>
+        <v>14.79667905986853</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.96307128095385</v>
+        <v>28.07718791293268</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.79395018184953</v>
+        <v>25.04644570463712</v>
       </c>
       <c r="C18">
-        <v>12.05686837943464</v>
+        <v>11.0341744143068</v>
       </c>
       <c r="D18">
-        <v>9.132279711053091</v>
+        <v>12.85509174558966</v>
       </c>
       <c r="E18">
-        <v>7.028490798173233</v>
+        <v>11.9986840391251</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.156982266253873</v>
+        <v>3.830683192780699</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.10690664359943</v>
+        <v>44.57150309058622</v>
       </c>
       <c r="J18">
-        <v>4.313200267628022</v>
+        <v>7.469782444471716</v>
       </c>
       <c r="K18">
-        <v>18.92529478648702</v>
+        <v>22.57920391404391</v>
       </c>
       <c r="L18">
-        <v>9.806152293606765</v>
+        <v>14.79748433587443</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.96477171286997</v>
+        <v>28.07925662952205</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.71985223856435</v>
+        <v>25.03663992713952</v>
       </c>
       <c r="C19">
-        <v>12.00959260651285</v>
+        <v>11.02351562316691</v>
       </c>
       <c r="D19">
-        <v>9.113328833547078</v>
+        <v>12.85433293724943</v>
       </c>
       <c r="E19">
-        <v>7.025490879023311</v>
+        <v>12.00007270732367</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.157879601538318</v>
+        <v>3.830969713474114</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.06086713835371</v>
+        <v>44.5670152347362</v>
       </c>
       <c r="J19">
-        <v>4.313539719085554</v>
+        <v>7.470039313765943</v>
       </c>
       <c r="K19">
-        <v>18.86546786237441</v>
+        <v>22.57207381892511</v>
       </c>
       <c r="L19">
-        <v>9.791756343900841</v>
+        <v>14.79779569569973</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.96546695066392</v>
+        <v>28.07998690660998</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.05282344298516</v>
+        <v>25.08113581411082</v>
       </c>
       <c r="C20">
-        <v>12.22185934654286</v>
+        <v>11.07159275765184</v>
       </c>
       <c r="D20">
-        <v>9.198824391550342</v>
+        <v>12.85789993499971</v>
       </c>
       <c r="E20">
-        <v>7.03922711411107</v>
+        <v>11.99391679186957</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.153846928022434</v>
+        <v>3.829688001077984</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.26927836995765</v>
+        <v>44.5876049890441</v>
       </c>
       <c r="J20">
-        <v>4.312034848510557</v>
+        <v>7.468892832747274</v>
       </c>
       <c r="K20">
-        <v>19.13451761041301</v>
+        <v>22.60448201972129</v>
       </c>
       <c r="L20">
-        <v>9.856888423445778</v>
+        <v>14.7965484036588</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.96281389931941</v>
+        <v>28.07681921701638</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.16301011135229</v>
+        <v>25.23700050614875</v>
       </c>
       <c r="C21">
-        <v>12.9267384462494</v>
+        <v>11.23494248790233</v>
       </c>
       <c r="D21">
-        <v>9.489814598137011</v>
+        <v>12.87254313479731</v>
       </c>
       <c r="E21">
-        <v>7.089609116823505</v>
+        <v>11.97486405648464</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.140377437731604</v>
+        <v>3.825515281615301</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.99159281713183</v>
+        <v>44.66365933588794</v>
       </c>
       <c r="J21">
-        <v>4.307386896986974</v>
+        <v>7.465206018626482</v>
       </c>
       <c r="K21">
-        <v>20.03521890841301</v>
+        <v>22.71894542380789</v>
       </c>
       <c r="L21">
-        <v>10.0819199790129</v>
+        <v>14.79504796759061</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.96256799362527</v>
+        <v>28.06825265822466</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.88211789646725</v>
+        <v>25.3434983719265</v>
       </c>
       <c r="C22">
-        <v>13.38141721283355</v>
+        <v>11.34289486454943</v>
       </c>
       <c r="D22">
-        <v>9.682783524905048</v>
+        <v>12.88408648640748</v>
       </c>
       <c r="E22">
-        <v>7.125810685022617</v>
+        <v>11.96362519881079</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.131613865556292</v>
+        <v>3.822887257135587</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.48089511070454</v>
+        <v>44.71846638574692</v>
       </c>
       <c r="J22">
-        <v>4.304668021341655</v>
+        <v>7.462919199126761</v>
       </c>
       <c r="K22">
-        <v>20.62137058858795</v>
+        <v>22.79783602241169</v>
       </c>
       <c r="L22">
-        <v>10.2337409478098</v>
+        <v>14.79606926204063</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.96931252381258</v>
+        <v>28.06420176172126</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.49890598094127</v>
+        <v>25.28624212436983</v>
       </c>
       <c r="C23">
-        <v>13.13927829900051</v>
+        <v>11.28517971785843</v>
       </c>
       <c r="D23">
-        <v>9.579535271011888</v>
+        <v>12.87774560852521</v>
       </c>
       <c r="E23">
-        <v>7.10618152962206</v>
+        <v>11.96951270297745</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.136288887897889</v>
+        <v>3.824280850490491</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.21811564690845</v>
+        <v>44.68874967548829</v>
       </c>
       <c r="J23">
-        <v>4.306088950106054</v>
+        <v>7.464128513944751</v>
       </c>
       <c r="K23">
-        <v>20.30875825176331</v>
+        <v>22.75536202790886</v>
       </c>
       <c r="L23">
-        <v>10.15226714204881</v>
+        <v>14.79534123026266</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.96505086023834</v>
+        <v>28.0662221619592</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.0345698811833</v>
+        <v>25.07866809154796</v>
       </c>
       <c r="C24">
-        <v>12.21023421086579</v>
+        <v>11.06894534693174</v>
       </c>
       <c r="D24">
-        <v>9.194115280738663</v>
+        <v>12.8576940313351</v>
       </c>
       <c r="E24">
-        <v>7.038457167983999</v>
+        <v>11.9942487074144</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.15406803539142</v>
+        <v>3.829757882418411</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.25775217338702</v>
+        <v>44.58644837635416</v>
       </c>
       <c r="J24">
-        <v>4.312115987360918</v>
+        <v>7.468955169469091</v>
       </c>
       <c r="K24">
-        <v>19.11975454397847</v>
+        <v>22.60268115676069</v>
       </c>
       <c r="L24">
-        <v>9.85328866441165</v>
+        <v>14.79660677076277</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.96292805539083</v>
+        <v>28.07698536040724</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.42846546939032</v>
+        <v>24.87535883451672</v>
       </c>
       <c r="C25">
-        <v>11.18148738367411</v>
+        <v>10.84186392689565</v>
       </c>
       <c r="D25">
-        <v>8.790423219145705</v>
+        <v>12.84458725724699</v>
       </c>
       <c r="E25">
-        <v>6.978697440045726</v>
+        <v>12.02615124436332</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.173539387165117</v>
+        <v>3.836094622698817</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.29104859172918</v>
+        <v>44.49814358442902</v>
       </c>
       <c r="J25">
-        <v>4.319896552186449</v>
+        <v>7.474691045831312</v>
       </c>
       <c r="K25">
-        <v>17.82738601728564</v>
+        <v>22.45598061145866</v>
       </c>
       <c r="L25">
-        <v>9.550397196786859</v>
+        <v>14.80658567199585</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.98750898925478</v>
+        <v>28.09523873938116</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_184/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.74403644308763</v>
+        <v>19.22628267807511</v>
       </c>
       <c r="C2">
-        <v>10.68104836919495</v>
+        <v>10.40148660058751</v>
       </c>
       <c r="D2">
-        <v>12.84230271379829</v>
+        <v>8.503876747239913</v>
       </c>
       <c r="E2">
-        <v>12.05414600804594</v>
+        <v>6.945336371229264</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.841133873346237</v>
+        <v>2.188251162878805</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>44.45218186239924</v>
+        <v>32.63407015444385</v>
       </c>
       <c r="J2">
-        <v>7.479373422515214</v>
+        <v>4.326644914406074</v>
       </c>
       <c r="K2">
-        <v>22.36385840546215</v>
+        <v>16.86991158275214</v>
       </c>
       <c r="L2">
-        <v>14.82135193464963</v>
+        <v>9.343509510421656</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>28.11438811150361</v>
+        <v>20.02601305505628</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.6667897445041</v>
+        <v>18.40233786659097</v>
       </c>
       <c r="C3">
-        <v>10.57657537048508</v>
+        <v>9.859944143652674</v>
       </c>
       <c r="D3">
-        <v>12.84536146111778</v>
+        <v>8.316669677389019</v>
       </c>
       <c r="E3">
-        <v>12.07593591476398</v>
+        <v>6.928996335446379</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.844784390681683</v>
+        <v>2.198508607906493</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>44.43295455265356</v>
+        <v>32.22093916059089</v>
       </c>
       <c r="J3">
-        <v>7.482834944910886</v>
+        <v>4.33182185855763</v>
       </c>
       <c r="K3">
-        <v>22.31151922590653</v>
+        <v>16.21965312800087</v>
       </c>
       <c r="L3">
-        <v>14.83598901566326</v>
+        <v>9.213069480171457</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>28.13092495601708</v>
+        <v>20.063656783291</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.62524050407935</v>
+        <v>17.89330377447633</v>
       </c>
       <c r="C4">
-        <v>10.51482489021473</v>
+        <v>9.521735880726601</v>
       </c>
       <c r="D4">
-        <v>12.84951445484534</v>
+        <v>8.205305195312343</v>
       </c>
       <c r="E4">
-        <v>12.09070721792382</v>
+        <v>6.921939682333835</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.847142694716771</v>
+        <v>2.204964016955585</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>44.42703674037769</v>
+        <v>31.98247086659959</v>
       </c>
       <c r="J4">
-        <v>7.485103127229858</v>
+        <v>4.335289237004759</v>
       </c>
       <c r="K4">
-        <v>22.28441142537943</v>
+        <v>15.82077401847885</v>
       </c>
       <c r="L4">
-        <v>14.84725983334297</v>
+        <v>9.137709856565335</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>28.14283343510605</v>
+        <v>20.0921175338996</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.60979919940553</v>
+        <v>17.6853386882643</v>
       </c>
       <c r="C5">
-        <v>10.49028851762277</v>
+        <v>9.382617345593291</v>
       </c>
       <c r="D5">
-        <v>12.85177919602448</v>
+        <v>8.160846119665182</v>
       </c>
       <c r="E5">
-        <v>12.09707709092429</v>
+        <v>6.919795806779449</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.848133219835138</v>
+        <v>2.207636334522116</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>44.42610684186638</v>
+        <v>31.88902258285791</v>
       </c>
       <c r="J5">
-        <v>7.486063426015513</v>
+        <v>4.336773640176487</v>
       </c>
       <c r="K5">
-        <v>22.27463617755893</v>
+        <v>15.65851178354925</v>
       </c>
       <c r="L5">
-        <v>14.85242699179487</v>
+        <v>9.108177368920561</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28.14812742474333</v>
+        <v>20.10501208268142</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.60732550279425</v>
+        <v>17.65078249245855</v>
       </c>
       <c r="C6">
-        <v>10.48625286764705</v>
+        <v>9.359443178848778</v>
       </c>
       <c r="D6">
-        <v>12.85218982903806</v>
+        <v>8.153520110714215</v>
       </c>
       <c r="E6">
-        <v>12.09815598010455</v>
+        <v>6.919483534445474</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.848299480522443</v>
+        <v>2.20808264814744</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>44.42604194303419</v>
+        <v>31.87372812895266</v>
       </c>
       <c r="J6">
-        <v>7.486225059612002</v>
+        <v>4.337024405682381</v>
       </c>
       <c r="K6">
-        <v>22.27308997244253</v>
+        <v>15.63159136263886</v>
       </c>
       <c r="L6">
-        <v>14.8533196725619</v>
+        <v>9.103344236457346</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>28.14903313192843</v>
+        <v>20.10723017914295</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.62502620882679</v>
+        <v>17.89050086177838</v>
       </c>
       <c r="C7">
-        <v>10.51449141177335</v>
+        <v>9.519864722023083</v>
       </c>
       <c r="D7">
-        <v>12.84954268019433</v>
+        <v>8.204701838641865</v>
       </c>
       <c r="E7">
-        <v>12.0907917048347</v>
+        <v>6.921907828108697</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.847155933709488</v>
+        <v>2.204999885265054</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>44.42701819935366</v>
+        <v>31.98119561113465</v>
       </c>
       <c r="J7">
-        <v>7.485115932287687</v>
+        <v>4.335308968476641</v>
       </c>
       <c r="K7">
-        <v>22.28427443695291</v>
+        <v>15.81858427719434</v>
       </c>
       <c r="L7">
-        <v>14.84732719461792</v>
+        <v>9.137306821932803</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>28.14290304553629</v>
+        <v>20.09228624565511</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.71618875739388</v>
+        <v>18.94297829998665</v>
       </c>
       <c r="C8">
-        <v>10.64454403793175</v>
+        <v>10.21601792451001</v>
       </c>
       <c r="D8">
-        <v>12.84288546102447</v>
+        <v>8.438597640662973</v>
       </c>
       <c r="E8">
-        <v>12.06137043523955</v>
+        <v>6.939074504061356</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.842368380601601</v>
+        <v>2.191756614892679</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>44.44433108126255</v>
+        <v>32.48841336445044</v>
       </c>
       <c r="J8">
-        <v>7.480537372332309</v>
+        <v>4.328369248070853</v>
       </c>
       <c r="K8">
-        <v>22.34477265421191</v>
+        <v>16.64572859404083</v>
       </c>
       <c r="L8">
-        <v>14.82592485935354</v>
+        <v>9.297544492443034</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>28.11972577009174</v>
+        <v>20.03785277401325</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.94103178333231</v>
+        <v>20.97283415024343</v>
       </c>
       <c r="C9">
-        <v>10.91743718911387</v>
+        <v>11.53160451094402</v>
       </c>
       <c r="D9">
-        <v>12.84786016541182</v>
+        <v>8.924780490216177</v>
       </c>
       <c r="E9">
-        <v>12.0147059967463</v>
+        <v>6.997124074428193</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.833902368734528</v>
+        <v>2.166929778452614</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>44.52493463723537</v>
+        <v>33.60787932100084</v>
       </c>
       <c r="J9">
-        <v>7.472687838394056</v>
+        <v>4.317112432009285</v>
       </c>
       <c r="K9">
-        <v>22.5029544780815</v>
+        <v>18.2638766848267</v>
       </c>
       <c r="L9">
-        <v>14.80207233875954</v>
+        <v>9.649878457002274</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.08820285189454</v>
+        <v>19.97589036327876</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.13342161770335</v>
+        <v>22.43419107909017</v>
       </c>
       <c r="C10">
-        <v>11.12720293639298</v>
+        <v>12.46445875522964</v>
       </c>
       <c r="D10">
-        <v>12.8624679674272</v>
+        <v>9.297783871666997</v>
       </c>
       <c r="E10">
-        <v>11.98712462888712</v>
+        <v>7.055753801957485</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.828237751588463</v>
+        <v>2.149225557762117</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>44.6124862817914</v>
+        <v>34.51272685316194</v>
       </c>
       <c r="J10">
-        <v>7.46760359420013</v>
+        <v>4.31037506097994</v>
       </c>
       <c r="K10">
-        <v>22.64272823899595</v>
+        <v>19.44331117394481</v>
       </c>
       <c r="L10">
-        <v>14.79558612070811</v>
+        <v>9.932855022556101</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>28.07354098843669</v>
+        <v>19.96125059487651</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.22662837242319</v>
+        <v>23.09144834836835</v>
       </c>
       <c r="C11">
-        <v>11.22428473514539</v>
+        <v>12.88141823919987</v>
       </c>
       <c r="D11">
-        <v>12.87147908822844</v>
+        <v>9.470796697745943</v>
       </c>
       <c r="E11">
-        <v>11.97602789644083</v>
+        <v>7.086156208545582</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.825779881708576</v>
+        <v>2.141247506438904</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>44.65843329310331</v>
+        <v>34.94380063874556</v>
       </c>
       <c r="J11">
-        <v>7.465437757647796</v>
+        <v>4.3076698166513</v>
       </c>
       <c r="K11">
-        <v>22.71128885037693</v>
+        <v>19.97700102278415</v>
       </c>
       <c r="L11">
-        <v>14.7950284409154</v>
+        <v>10.06706438994431</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>28.06871754783284</v>
+        <v>19.96219108514267</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.26272016963065</v>
+        <v>23.33922529293256</v>
       </c>
       <c r="C12">
-        <v>11.26125481608721</v>
+        <v>13.03827631008161</v>
       </c>
       <c r="D12">
-        <v>12.87523007913676</v>
+        <v>9.536790576246803</v>
       </c>
       <c r="E12">
-        <v>11.97203397629409</v>
+        <v>7.098228559062486</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.82486614784374</v>
+        <v>2.138233525467692</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.67670801567706</v>
+        <v>35.10998041239473</v>
       </c>
       <c r="J12">
-        <v>7.464638663829557</v>
+        <v>4.306699826608529</v>
       </c>
       <c r="K12">
-        <v>22.73795285699373</v>
+        <v>20.17866470699515</v>
       </c>
       <c r="L12">
-        <v>14.79516077713735</v>
+        <v>10.11869879064487</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>28.06715656699436</v>
+        <v>19.96372407494432</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.254912090118</v>
+        <v>23.28591154996203</v>
       </c>
       <c r="C13">
-        <v>11.25328392453548</v>
+        <v>13.00453939043114</v>
       </c>
       <c r="D13">
-        <v>12.87440720060237</v>
+        <v>9.522556300011937</v>
       </c>
       <c r="E13">
-        <v>11.97288488586462</v>
+        <v>7.095603285997478</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.825062181973065</v>
+        <v>2.138882387267175</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.67273336115499</v>
+        <v>35.07405728408033</v>
       </c>
       <c r="J13">
-        <v>7.464809827507432</v>
+        <v>4.306906262775599</v>
       </c>
       <c r="K13">
-        <v>22.73217931792685</v>
+        <v>20.13525207688799</v>
       </c>
       <c r="L13">
-        <v>14.79511700886328</v>
+        <v>10.10754183121531</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>28.06748094105611</v>
+        <v>19.96334014404119</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.22958183248794</v>
+        <v>23.11185540584332</v>
       </c>
       <c r="C14">
-        <v>11.22732230994624</v>
+        <v>12.89434352701226</v>
       </c>
       <c r="D14">
-        <v>12.8717809066507</v>
+        <v>9.476216458307555</v>
       </c>
       <c r="E14">
-        <v>11.97569514427349</v>
+        <v>7.087138053804782</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.825704367994073</v>
+        <v>2.140999424453265</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>44.65991924463192</v>
+        <v>34.95741249802681</v>
       </c>
       <c r="J14">
-        <v>7.465371594061651</v>
+        <v>4.307588907093369</v>
       </c>
       <c r="K14">
-        <v>22.71346853768446</v>
+        <v>19.99360070247125</v>
       </c>
       <c r="L14">
-        <v>14.79503244751791</v>
+        <v>10.07129594728904</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>28.06858380273641</v>
+        <v>19.96229310640215</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.2141693761711</v>
+        <v>23.00509604234235</v>
       </c>
       <c r="C15">
-        <v>11.21144614286592</v>
+        <v>12.82671190118446</v>
       </c>
       <c r="D15">
-        <v>12.87021628133967</v>
+        <v>9.447894277000691</v>
       </c>
       <c r="E15">
-        <v>11.97744360783567</v>
+        <v>7.082026449251859</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.826099937387175</v>
+        <v>2.14229698128692</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>44.6521841155685</v>
+        <v>34.88635189229212</v>
       </c>
       <c r="J15">
-        <v>7.465718432807375</v>
+        <v>4.308014222383349</v>
       </c>
       <c r="K15">
-        <v>22.70209857664435</v>
+        <v>19.90677865471081</v>
       </c>
       <c r="L15">
-        <v>14.79502536773914</v>
+        <v>10.04920088043759</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>28.06929392116587</v>
+        <v>19.96180767036818</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.12744298424696</v>
+        <v>22.39108276064</v>
       </c>
       <c r="C16">
-        <v>11.12088912225016</v>
+        <v>12.43706232806468</v>
       </c>
       <c r="D16">
-        <v>12.86192655176078</v>
+        <v>9.286543809755205</v>
       </c>
       <c r="E16">
-        <v>11.98787897701791</v>
+        <v>7.053843947887945</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.828400764797391</v>
+        <v>2.149748154222275</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>44.60960631374543</v>
+        <v>34.48495849122471</v>
       </c>
       <c r="J16">
-        <v>7.467748088219163</v>
+        <v>4.310559314006797</v>
       </c>
       <c r="K16">
-        <v>22.63834660995835</v>
+        <v>19.40837317579616</v>
       </c>
       <c r="L16">
-        <v>14.79567067154305</v>
+        <v>9.924196355338298</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>28.07389336932181</v>
+        <v>19.96134904282921</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.07568106722891</v>
+        <v>22.01244283223566</v>
       </c>
       <c r="C17">
-        <v>11.0657379445203</v>
+        <v>12.19614044884552</v>
       </c>
       <c r="D17">
-        <v>12.85744602392975</v>
+        <v>9.188410291787255</v>
       </c>
       <c r="E17">
-        <v>11.99465190864874</v>
+        <v>7.037526446806486</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.829842651429895</v>
+        <v>2.154336055046739</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.58505060473852</v>
+        <v>34.24379566869243</v>
       </c>
       <c r="J17">
-        <v>7.469030813021595</v>
+        <v>4.312214553989079</v>
       </c>
       <c r="K17">
-        <v>22.60050185916383</v>
+        <v>19.10186079138723</v>
       </c>
       <c r="L17">
-        <v>14.79667905986853</v>
+        <v>9.848929520667085</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>28.07718791293268</v>
+        <v>19.9630712809539</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.04644570463712</v>
+        <v>21.79395018184958</v>
       </c>
       <c r="C18">
-        <v>11.0341744143068</v>
+        <v>12.05686837943463</v>
       </c>
       <c r="D18">
-        <v>12.85509174558966</v>
+        <v>9.132279711053059</v>
       </c>
       <c r="E18">
-        <v>11.9986840391251</v>
+        <v>7.028490798173241</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.830683192780699</v>
+        <v>2.156982266254004</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.57150309058622</v>
+        <v>34.10690664359961</v>
       </c>
       <c r="J18">
-        <v>7.469782444471716</v>
+        <v>4.313200267628056</v>
       </c>
       <c r="K18">
-        <v>22.57920391404391</v>
+        <v>18.92529478648704</v>
       </c>
       <c r="L18">
-        <v>14.79748433587443</v>
+        <v>9.806152293606749</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>28.07925662952205</v>
+        <v>19.96477171287005</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.03663992713952</v>
+        <v>21.7198522385644</v>
       </c>
       <c r="C19">
-        <v>11.02351562316691</v>
+        <v>12.00959260651285</v>
       </c>
       <c r="D19">
-        <v>12.85433293724943</v>
+        <v>9.113328833547065</v>
       </c>
       <c r="E19">
-        <v>12.00007270732367</v>
+        <v>7.025490879023308</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.830969713474114</v>
+        <v>2.157879601537925</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.5670152347362</v>
+        <v>34.0608671383538</v>
       </c>
       <c r="J19">
-        <v>7.470039313765943</v>
+        <v>4.313539719085488</v>
       </c>
       <c r="K19">
-        <v>22.57207381892511</v>
+        <v>18.86546786237443</v>
       </c>
       <c r="L19">
-        <v>14.79779569569973</v>
+        <v>9.791756343900801</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>28.07998690660998</v>
+        <v>19.96546695066392</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.08113581411082</v>
+        <v>22.05282344298522</v>
       </c>
       <c r="C20">
-        <v>11.07159275765184</v>
+        <v>12.22185934654281</v>
       </c>
       <c r="D20">
-        <v>12.85789993499971</v>
+        <v>9.198824391550312</v>
       </c>
       <c r="E20">
-        <v>11.99391679186957</v>
+        <v>7.039227114111083</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.829688001077984</v>
+        <v>2.153846928022306</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.5876049890441</v>
+        <v>34.26927836995778</v>
       </c>
       <c r="J20">
-        <v>7.468892832747274</v>
+        <v>4.312034848510589</v>
       </c>
       <c r="K20">
-        <v>22.60448201972129</v>
+        <v>19.13451761041303</v>
       </c>
       <c r="L20">
-        <v>14.7965484036588</v>
+        <v>9.856888423445799</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>28.07681921701638</v>
+        <v>19.96281389931949</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.23700050614875</v>
+        <v>23.16301011135234</v>
       </c>
       <c r="C21">
-        <v>11.23494248790233</v>
+        <v>12.92673844624937</v>
       </c>
       <c r="D21">
-        <v>12.87254313479731</v>
+        <v>9.489814598137087</v>
       </c>
       <c r="E21">
-        <v>11.97486405648464</v>
+        <v>7.089609116823628</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.825515281615301</v>
+        <v>2.140377437732259</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>44.66365933588794</v>
+        <v>34.99159281713207</v>
       </c>
       <c r="J21">
-        <v>7.465206018626482</v>
+        <v>4.30738689698704</v>
       </c>
       <c r="K21">
-        <v>22.71894542380789</v>
+        <v>20.03521890841304</v>
       </c>
       <c r="L21">
-        <v>14.79504796759061</v>
+        <v>10.08191997901297</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>28.06825265822466</v>
+        <v>19.96256799362546</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.3434983719265</v>
+        <v>23.88211789646728</v>
       </c>
       <c r="C22">
-        <v>11.34289486454943</v>
+        <v>13.38141721283355</v>
       </c>
       <c r="D22">
-        <v>12.88408648640748</v>
+        <v>9.682783524905043</v>
       </c>
       <c r="E22">
-        <v>11.96362519881079</v>
+        <v>7.125810685022612</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.822887257135587</v>
+        <v>2.131613865556422</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>44.71846638574692</v>
+        <v>35.48089511070459</v>
       </c>
       <c r="J22">
-        <v>7.462919199126761</v>
+        <v>4.304668021341755</v>
       </c>
       <c r="K22">
-        <v>22.79783602241169</v>
+        <v>20.62137058858796</v>
       </c>
       <c r="L22">
-        <v>14.79606926204063</v>
+        <v>10.23374094780976</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>28.06420176172126</v>
+        <v>19.96931252381251</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.28624212436983</v>
+        <v>23.49890598094127</v>
       </c>
       <c r="C23">
-        <v>11.28517971785843</v>
+        <v>13.13927829900047</v>
       </c>
       <c r="D23">
-        <v>12.87774560852521</v>
+        <v>9.579535271011926</v>
       </c>
       <c r="E23">
-        <v>11.96951270297745</v>
+        <v>7.106181529622117</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.824280850490491</v>
+        <v>2.136288887898013</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.68874967548829</v>
+        <v>35.2181156469085</v>
       </c>
       <c r="J23">
-        <v>7.464128513944751</v>
+        <v>4.30608895010602</v>
       </c>
       <c r="K23">
-        <v>22.75536202790886</v>
+        <v>20.30875825176329</v>
       </c>
       <c r="L23">
-        <v>14.79534123026266</v>
+        <v>10.15226714204879</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>28.0662221619592</v>
+        <v>19.96505086023836</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.07866809154796</v>
+        <v>22.03456988118334</v>
       </c>
       <c r="C24">
-        <v>11.06894534693174</v>
+        <v>12.21023421086577</v>
       </c>
       <c r="D24">
-        <v>12.8576940313351</v>
+        <v>9.194115280738805</v>
       </c>
       <c r="E24">
-        <v>11.9942487074144</v>
+        <v>7.038457167984044</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.829757882418411</v>
+        <v>2.15406803539155</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.58644837635416</v>
+        <v>34.25775217338717</v>
       </c>
       <c r="J24">
-        <v>7.468955169469091</v>
+        <v>4.312115987360884</v>
       </c>
       <c r="K24">
-        <v>22.60268115676069</v>
+        <v>19.11975454397848</v>
       </c>
       <c r="L24">
-        <v>14.79660677076277</v>
+        <v>9.853288664411691</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>28.07698536040724</v>
+        <v>19.96292805539088</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.87535883451672</v>
+        <v>20.42846546939033</v>
       </c>
       <c r="C25">
-        <v>10.84186392689565</v>
+        <v>11.1814873836741</v>
       </c>
       <c r="D25">
-        <v>12.84458725724699</v>
+        <v>8.790423219145852</v>
       </c>
       <c r="E25">
-        <v>12.02615124436332</v>
+        <v>6.978697440045624</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.836094622698817</v>
+        <v>2.173539387165126</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>44.49814358442902</v>
+        <v>33.29104859172914</v>
       </c>
       <c r="J25">
-        <v>7.474691045831312</v>
+        <v>4.319896552186282</v>
       </c>
       <c r="K25">
-        <v>22.45598061145866</v>
+        <v>17.82738601728564</v>
       </c>
       <c r="L25">
-        <v>14.80658567199585</v>
+        <v>9.55039719678679</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>28.09523873938116</v>
+        <v>19.98750898925471</v>
       </c>
       <c r="O25">
         <v>0</v>
